--- a/Modulos, Entidades, Operaciones y Prioridades.xlsx
+++ b/Modulos, Entidades, Operaciones y Prioridades.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Saldos Iniciales" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="63">
   <si>
     <t>ApproveAssignment</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>SEARCH</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -214,6 +220,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -308,34 +315,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="29">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -362,18 +369,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:D42" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:E42" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E42"/>
   <sortState ref="A2:D42">
     <sortCondition ref="C2:C42"/>
     <sortCondition ref="B2:B42"/>
     <sortCondition ref="D2:D42"/>
   </sortState>
-  <tableColumns count="4">
+  <tableColumns count="5">
     <tableColumn id="1" name="Operation"/>
     <tableColumn id="2" name="Main Related Entity"/>
     <tableColumn id="3" name="Module"/>
     <tableColumn id="4" name="OperationType (READ/WRITE/SEARCH)"/>
+    <tableColumn id="5" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -701,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -714,7 +722,7 @@
     <col min="4" max="4" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -727,8 +735,11 @@
       <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -742,7 +753,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -756,7 +767,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -770,7 +781,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -784,7 +795,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -798,7 +809,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -812,7 +823,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -825,8 +836,11 @@
       <c r="D8" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -840,7 +854,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -854,7 +868,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -868,7 +882,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -882,7 +896,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -896,7 +910,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -910,7 +924,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -924,7 +938,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -938,7 +952,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -952,7 +966,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
@@ -965,8 +979,11 @@
       <c r="D18" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -980,7 +997,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -994,7 +1011,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1008,7 +1025,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -1022,7 +1039,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1036,7 +1053,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1050,7 +1067,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1064,7 +1081,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1078,7 +1095,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1092,7 +1109,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1106,7 +1123,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1120,7 +1137,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -1134,7 +1151,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
         <v>6</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="D31" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>36</v>
       </c>

--- a/Modulos, Entidades, Operaciones y Prioridades.xlsx
+++ b/Modulos, Entidades, Operaciones y Prioridades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Saldos Iniciales" sheetId="2" r:id="rId1"/>
@@ -712,7 +712,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Modulos, Entidades, Operaciones y Prioridades.xlsx
+++ b/Modulos, Entidades, Operaciones y Prioridades.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
   <si>
     <t>ApproveAssignment</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>Column1</t>
+  </si>
+  <si>
+    <t>Falta Layouts</t>
+  </si>
+  <si>
+    <t>Column2</t>
   </si>
 </sst>
 </file>
@@ -369,19 +375,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:E42" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F42" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F42"/>
   <sortState ref="A2:D42">
     <sortCondition ref="C2:C42"/>
     <sortCondition ref="B2:B42"/>
     <sortCondition ref="D2:D42"/>
   </sortState>
-  <tableColumns count="5">
+  <tableColumns count="6">
     <tableColumn id="1" name="Operation"/>
     <tableColumn id="2" name="Main Related Entity"/>
     <tableColumn id="3" name="Module"/>
     <tableColumn id="4" name="OperationType (READ/WRITE/SEARCH)"/>
     <tableColumn id="5" name="Column1"/>
+    <tableColumn id="6" name="Column2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -709,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -722,7 +729,7 @@
     <col min="4" max="4" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -738,8 +745,11 @@
       <c r="E1" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -753,7 +763,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -767,7 +777,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -781,7 +791,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -795,7 +805,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -809,7 +819,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -823,7 +833,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -839,8 +849,11 @@
       <c r="E8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -854,7 +867,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -868,7 +881,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -882,7 +895,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -896,7 +909,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -910,7 +923,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -924,7 +937,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -938,7 +951,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>8</v>
       </c>

--- a/Modulos, Entidades, Operaciones y Prioridades.xlsx
+++ b/Modulos, Entidades, Operaciones y Prioridades.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="67">
   <si>
     <t>ApproveAssignment</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>Column2</t>
+  </si>
+  <si>
+    <t>IN PROGRESS</t>
+  </si>
+  <si>
+    <t>REQUIRES Qualification Request entity creation</t>
   </si>
 </sst>
 </file>
@@ -283,8 +289,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -320,7 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -335,6 +347,9 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -349,6 +364,9 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -719,7 +737,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -965,7 +983,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -979,7 +997,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
@@ -996,7 +1014,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1010,7 +1028,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1024,7 +1042,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1038,7 +1056,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -1051,8 +1069,11 @@
       <c r="D22" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1065,8 +1086,14 @@
       <c r="D23" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1080,7 +1107,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1094,7 +1121,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1108,7 +1135,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1122,7 +1149,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1136,7 +1163,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1150,7 +1177,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -1164,7 +1191,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
         <v>6</v>
       </c>
@@ -1181,7 +1208,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>36</v>
       </c>

--- a/Modulos, Entidades, Operaciones y Prioridades.xlsx
+++ b/Modulos, Entidades, Operaciones y Prioridades.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="65">
   <si>
     <t>ApproveAssignment</t>
   </si>
@@ -214,12 +214,6 @@
   </si>
   <si>
     <t>Column2</t>
-  </si>
-  <si>
-    <t>IN PROGRESS</t>
-  </si>
-  <si>
-    <t>REQUIRES Qualification Request entity creation</t>
   </si>
 </sst>
 </file>
@@ -983,7 +977,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -997,7 +991,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
@@ -1014,7 +1008,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1028,7 +1022,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1042,7 +1036,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1056,7 +1050,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -1073,7 +1067,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1087,13 +1081,10 @@
         <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1107,7 +1098,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1121,7 +1112,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1135,7 +1126,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1149,7 +1140,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1163,7 +1154,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1177,7 +1168,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -1191,7 +1182,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
         <v>6</v>
       </c>
@@ -1208,7 +1199,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>36</v>
       </c>

--- a/Modulos, Entidades, Operaciones y Prioridades.xlsx
+++ b/Modulos, Entidades, Operaciones y Prioridades.xlsx
@@ -254,7 +254,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +273,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -283,7 +289,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -319,14 +325,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -344,6 +355,8 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -361,6 +374,8 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -388,7 +403,16 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F42" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:F42"/>
+  <autoFilter ref="A1:F42">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="UPDATE"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:D42">
     <sortCondition ref="C2:C42"/>
     <sortCondition ref="B2:B42"/>
@@ -731,7 +755,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -761,7 +785,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" hidden="1">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -775,7 +799,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" hidden="1">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -789,7 +813,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" hidden="1">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -845,7 +869,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" hidden="1">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -865,7 +889,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" hidden="1">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -879,7 +903,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" hidden="1">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -893,7 +917,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" hidden="1">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -907,7 +931,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" hidden="1">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -921,7 +945,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" hidden="1">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -936,62 +960,62 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" hidden="1">
       <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
@@ -1008,7 +1032,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" hidden="1">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1022,7 +1046,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" hidden="1">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1050,7 +1074,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" hidden="1">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -1067,7 +1091,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" hidden="1">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1084,7 +1108,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" hidden="1">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1098,7 +1122,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" hidden="1">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1112,7 +1136,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" hidden="1">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1126,7 +1150,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" hidden="1">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1141,93 +1165,93 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" t="s">
+      <c r="A28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="B28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" t="s">
+      <c r="A29" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="B29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" t="s">
+      <c r="A30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="B30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:5" hidden="1">
+      <c r="A31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="C31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
+    <row r="32" spans="1:5" hidden="1">
+      <c r="A32" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" t="s">
+      <c r="A33" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" hidden="1">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -1241,7 +1265,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" hidden="1">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1255,7 +1279,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" hidden="1">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -1269,7 +1293,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" hidden="1">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1283,7 +1307,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" hidden="1">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -1297,7 +1321,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" hidden="1">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1311,7 +1335,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" hidden="1">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -1325,7 +1349,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" hidden="1">
       <c r="A41" t="s">
         <v>12</v>
       </c>

--- a/Modulos, Entidades, Operaciones y Prioridades.xlsx
+++ b/Modulos, Entidades, Operaciones y Prioridades.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="65">
   <si>
     <t>ApproveAssignment</t>
   </si>
@@ -289,8 +289,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -337,7 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -357,6 +369,12 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -376,6 +394,12 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -403,16 +427,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F42" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:F42">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="UPDATE"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F42"/>
   <sortState ref="A2:D42">
     <sortCondition ref="C2:C42"/>
     <sortCondition ref="B2:B42"/>
@@ -755,7 +770,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -785,7 +800,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -799,7 +814,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -813,7 +828,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -869,7 +884,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -889,7 +904,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -903,7 +918,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -917,7 +932,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -931,7 +946,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -945,7 +960,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -972,6 +987,9 @@
       <c r="D14" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
@@ -986,6 +1004,9 @@
       <c r="D15" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
@@ -1015,7 +1036,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1">
+    <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
@@ -1032,7 +1053,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1046,7 +1067,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1074,7 +1095,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1">
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -1091,7 +1112,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1">
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1108,7 +1129,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1122,7 +1143,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1136,7 +1157,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1150,7 +1171,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1206,7 +1227,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1">
+    <row r="31" spans="1:5">
       <c r="A31" s="4" t="s">
         <v>6</v>
       </c>
@@ -1223,7 +1244,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1">
+    <row r="32" spans="1:5">
       <c r="A32" s="4" t="s">
         <v>36</v>
       </c>
@@ -1251,7 +1272,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -1265,7 +1286,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1279,7 +1300,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -1293,7 +1314,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1307,7 +1328,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -1321,7 +1342,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1335,7 +1356,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -1349,7 +1370,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>12</v>
       </c>

--- a/Modulos, Entidades, Operaciones y Prioridades.xlsx
+++ b/Modulos, Entidades, Operaciones y Prioridades.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="65">
   <si>
     <t>ApproveAssignment</t>
   </si>
@@ -289,8 +289,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -349,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -375,6 +387,12 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -400,6 +418,12 @@
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -770,7 +794,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1020,6 +1044,9 @@
       </c>
       <c r="D16" s="4" t="s">
         <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:5">

--- a/Modulos, Entidades, Operaciones y Prioridades.xlsx
+++ b/Modulos, Entidades, Operaciones y Prioridades.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="65">
   <si>
     <t>ApproveAssignment</t>
   </si>
@@ -289,8 +289,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -361,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="73">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -393,6 +403,11 @@
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -424,6 +439,11 @@
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -794,7 +814,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1061,6 +1081,9 @@
       </c>
       <c r="D17" s="4" t="s">
         <v>57</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:5">

--- a/Modulos, Entidades, Operaciones y Prioridades.xlsx
+++ b/Modulos, Entidades, Operaciones y Prioridades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Saldos Iniciales" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="65">
   <si>
     <t>ApproveAssignment</t>
   </si>
@@ -289,8 +289,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="73">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -371,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="73">
+  <cellStyles count="77">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -408,6 +412,8 @@
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -444,6 +450,8 @@
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -813,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1247,6 +1255,9 @@
       </c>
       <c r="D28" s="4" t="s">
         <v>57</v>
+      </c>
+      <c r="E28" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:5">

--- a/Modulos, Entidades, Operaciones y Prioridades.xlsx
+++ b/Modulos, Entidades, Operaciones y Prioridades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Saldos Iniciales" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="65">
   <si>
     <t>ApproveAssignment</t>
   </si>
@@ -289,8 +289,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -375,7 +385,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="87">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -414,6 +424,11 @@
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -452,6 +467,11 @@
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -822,7 +842,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1272,6 +1292,9 @@
       </c>
       <c r="D29" s="4" t="s">
         <v>57</v>
+      </c>
+      <c r="E29" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:5">

--- a/Modulos, Entidades, Operaciones y Prioridades.xlsx
+++ b/Modulos, Entidades, Operaciones y Prioridades.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="65">
   <si>
     <t>ApproveAssignment</t>
   </si>
@@ -289,8 +289,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="87">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -385,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="87">
+  <cellStyles count="91">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -429,6 +433,8 @@
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -472,6 +478,8 @@
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -842,7 +850,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1309,6 +1317,9 @@
       </c>
       <c r="D30" s="4" t="s">
         <v>57</v>
+      </c>
+      <c r="E30" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:5">

--- a/Modulos, Entidades, Operaciones y Prioridades.xlsx
+++ b/Modulos, Entidades, Operaciones y Prioridades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Saldos Iniciales" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="64">
   <si>
     <t>ApproveAssignment</t>
   </si>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>Column1</t>
-  </si>
-  <si>
-    <t>Falta Layouts</t>
   </si>
   <si>
     <t>Column2</t>
@@ -289,8 +286,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="91">
+  <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -389,7 +388,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="91">
+  <cellStyles count="93">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -435,6 +434,7 @@
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -480,6 +480,7 @@
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -850,7 +851,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -877,7 +878,7 @@
         <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -979,9 +980,6 @@
       </c>
       <c r="E8" t="s">
         <v>61</v>
-      </c>
-      <c r="F8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6">

--- a/Modulos, Entidades, Operaciones y Prioridades.xlsx
+++ b/Modulos, Entidades, Operaciones y Prioridades.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="64">
   <si>
     <t>ApproveAssignment</t>
   </si>
@@ -223,7 +223,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,8 +285,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="93">
+  <cellStyleXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -388,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="93">
+  <cellStyles count="95">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -435,6 +436,7 @@
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -481,6 +483,7 @@
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -851,7 +854,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1338,20 +1341,20 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="4" t="s">
+      <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="A33" s="4" t="s">
         <v>42</v>
       </c>
@@ -1364,8 +1367,11 @@
       <c r="D33" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -1379,7 +1385,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1393,7 +1399,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -1407,7 +1413,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1421,7 +1427,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -1435,7 +1441,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1449,7 +1455,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -1463,7 +1469,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -1477,7 +1483,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>40</v>
       </c>

--- a/Modulos, Entidades, Operaciones y Prioridades.xlsx
+++ b/Modulos, Entidades, Operaciones y Prioridades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Saldos Iniciales" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="64">
   <si>
     <t>ApproveAssignment</t>
   </si>
@@ -250,7 +250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +275,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -285,7 +291,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="95">
+  <cellStyleXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -381,15 +387,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="95">
+  <cellStyles count="97">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -437,6 +446,7 @@
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -484,6 +494,7 @@
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -854,7 +865,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -885,16 +896,16 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -986,16 +997,16 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1010,7 +1021,7 @@
         <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,17 +1397,20 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" t="s">
+      <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="5" t="s">
         <v>59</v>
+      </c>
+      <c r="E35" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:5">

--- a/Modulos, Entidades, Operaciones y Prioridades.xlsx
+++ b/Modulos, Entidades, Operaciones y Prioridades.xlsx
@@ -250,7 +250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +281,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -291,7 +309,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="97">
+  <cellStyleXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -389,16 +407,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="97">
+  <cellStyles count="119">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -447,6 +490,17 @@
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -495,6 +549,17 @@
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -865,7 +930,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -896,86 +961,86 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="A7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1009,6 +1074,9 @@
       <c r="D9" s="5" t="s">
         <v>59</v>
       </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
@@ -1397,20 +1465,17 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="E35" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:5">

--- a/Modulos, Entidades, Operaciones y Prioridades.xlsx
+++ b/Modulos, Entidades, Operaciones y Prioridades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Saldos Iniciales" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="65">
   <si>
     <t>ApproveAssignment</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Column2</t>
+  </si>
+  <si>
+    <t>IN PROGRESS</t>
   </si>
 </sst>
 </file>
@@ -309,8 +312,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="119">
+  <cellStyleXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -441,7 +446,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="119">
+  <cellStyles count="121">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -501,6 +506,7 @@
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -560,6 +566,7 @@
     <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -930,7 +937,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1015,6 +1022,9 @@
       <c r="D5" s="7" t="s">
         <v>57</v>
       </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="7" t="s">
@@ -1029,6 +1039,9 @@
       <c r="D6" s="7" t="s">
         <v>57</v>
       </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="7" t="s">
@@ -1042,6 +1055,9 @@
       </c>
       <c r="D7" s="7" t="s">
         <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6">

--- a/Modulos, Entidades, Operaciones y Prioridades.xlsx
+++ b/Modulos, Entidades, Operaciones y Prioridades.xlsx
@@ -312,8 +312,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="121">
+  <cellStyleXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -446,7 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="121">
+  <cellStyles count="139">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -507,6 +525,15 @@
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -567,6 +594,15 @@
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -937,7 +973,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1023,7 +1059,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6">

--- a/Modulos, Entidades, Operaciones y Prioridades.xlsx
+++ b/Modulos, Entidades, Operaciones y Prioridades.xlsx
@@ -312,8 +312,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="139">
+  <cellStyleXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -464,7 +472,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="139">
+  <cellStyles count="147">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -534,6 +542,10 @@
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -603,6 +615,10 @@
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -973,7 +989,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1093,7 +1109,7 @@
         <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:6">

--- a/Modulos, Entidades, Operaciones y Prioridades.xlsx
+++ b/Modulos, Entidades, Operaciones y Prioridades.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="65">
   <si>
     <t>ApproveAssignment</t>
   </si>
@@ -312,8 +312,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="147">
+  <cellStyleXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -472,7 +482,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="147">
+  <cellStyles count="157">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -546,6 +556,11 @@
     <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -619,6 +634,11 @@
     <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -989,7 +1009,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1032,6 +1052,9 @@
       <c r="D2" s="7" t="s">
         <v>59</v>
       </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8" t="s">
@@ -1060,6 +1083,9 @@
       <c r="D4" s="7" t="s">
         <v>60</v>
       </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
@@ -1092,7 +1118,7 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6">

--- a/Modulos, Entidades, Operaciones y Prioridades.xlsx
+++ b/Modulos, Entidades, Operaciones y Prioridades.xlsx
@@ -312,8 +312,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="157">
+  <cellStyleXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -482,7 +490,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="157">
+  <cellStyles count="165">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -561,6 +569,10 @@
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -639,6 +651,10 @@
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -1009,7 +1025,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1053,7 +1069,7 @@
         <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6">

--- a/Modulos, Entidades, Operaciones y Prioridades.xlsx
+++ b/Modulos, Entidades, Operaciones y Prioridades.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="65">
   <si>
     <t>ApproveAssignment</t>
   </si>
@@ -213,7 +213,7 @@
     <t>Column2</t>
   </si>
   <si>
-    <t>IN PROGRESS</t>
+    <t>PENDING SE</t>
   </si>
 </sst>
 </file>
@@ -312,8 +312,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="165">
+  <cellStyleXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -490,7 +500,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="165">
+  <cellStyles count="175">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -573,6 +583,11 @@
     <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -655,6 +670,11 @@
     <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -1024,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1201,6 +1221,9 @@
       <c r="D10" t="s">
         <v>60</v>
       </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
@@ -1215,6 +1238,9 @@
       <c r="D11" t="s">
         <v>60</v>
       </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
@@ -1229,6 +1255,9 @@
       <c r="D12" t="s">
         <v>60</v>
       </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
@@ -1242,6 +1271,9 @@
       </c>
       <c r="D13" t="s">
         <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:6">

--- a/Modulos, Entidades, Operaciones y Prioridades.xlsx
+++ b/Modulos, Entidades, Operaciones y Prioridades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Saldos Iniciales" sheetId="2" r:id="rId1"/>
@@ -312,8 +312,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="175">
+  <cellStyleXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -500,7 +504,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="175">
+  <cellStyles count="179">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -588,6 +592,8 @@
     <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -675,6 +681,8 @@
     <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -1045,7 +1053,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1120,7 +1128,7 @@
         <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6">
